--- a/data/Table 510-60001_tc.xlsx
+++ b/data/Table 510-60001_tc.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <r>
       <rPr>
@@ -166,7 +166,7 @@
     </r>
   </si>
   <si>
-    <t>發布日期：2025年8月21日</t>
+    <t>發布日期：2025年9月22日</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1593,27 +1593,51 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" ht="21" customHeight="1">
-      <c r="A26" s="2" t="s">
+    <row r="26" ht="21.75" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="7">
+        <v>109</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1.1</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="7">
+        <v>111.8</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>107.7</v>
+      </c>
+      <c r="J26" s="8">
         <v>1</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="K26" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="L26" s="7">
+        <v>107.5</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="27" ht="21" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1631,7 +1655,7 @@
     </row>
     <row r="28" ht="21" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1647,9 +1671,9 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" ht="38.25" customHeight="1">
+    <row r="29" ht="21" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1665,9 +1689,9 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" ht="72" customHeight="1">
+    <row r="30" ht="38.25" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1683,9 +1707,9 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" ht="21" customHeight="1">
+    <row r="31" ht="72" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1703,7 +1727,7 @@
     </row>
     <row r="32" ht="21" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1721,7 +1745,7 @@
     </row>
     <row r="33" ht="21" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1739,7 +1763,7 @@
     </row>
     <row r="34" ht="21" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1757,7 +1781,7 @@
     </row>
     <row r="35" ht="21" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1775,7 +1799,7 @@
     </row>
     <row r="36" ht="21" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1793,7 +1817,7 @@
     </row>
     <row r="37" ht="21" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1811,7 +1835,7 @@
     </row>
     <row r="38" ht="21" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1829,7 +1853,7 @@
     </row>
     <row r="39" ht="21" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1847,7 +1871,7 @@
     </row>
     <row r="40" ht="21" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1865,7 +1889,7 @@
     </row>
     <row r="41" ht="21" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1883,7 +1907,7 @@
     </row>
     <row r="42" ht="21" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1901,7 +1925,7 @@
     </row>
     <row r="43" ht="21" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1917,6 +1941,24 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
+    <row r="44" ht="21" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="29">
     <mergeCell ref="A1:N1"/>
@@ -1929,8 +1971,7 @@
     <mergeCell ref="C5:N5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:A18"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="A26:N26"/>
+    <mergeCell ref="A19:A26"/>
     <mergeCell ref="A27:N27"/>
     <mergeCell ref="A28:N28"/>
     <mergeCell ref="A29:N29"/>
@@ -1948,9 +1989,10 @@
     <mergeCell ref="A41:N41"/>
     <mergeCell ref="A42:N42"/>
     <mergeCell ref="A43:N43"/>
+    <mergeCell ref="A44:N44"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N43"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N44"/>
   </ignoredErrors>
 </worksheet>
 </file>